--- a/words.xlsx
+++ b/words.xlsx
@@ -447,7 +447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/words.xlsx
+++ b/words.xlsx
@@ -25,12 +25,6 @@
     <t>Lek2</t>
   </si>
   <si>
-    <t>Ich spiel mit meinem Hund</t>
-  </si>
-  <si>
-    <t>Ich spiel mit meiner Katze</t>
-  </si>
-  <si>
     <t>قطة</t>
   </si>
   <si>
@@ -77,6 +71,12 @@
   </si>
   <si>
     <t>Don't foget to change (cell A1) before saving</t>
+  </si>
+  <si>
+    <t>Ich spiele mit meinem Hund</t>
+  </si>
+  <si>
+    <t>Ich spiele mit meiner Katze</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A14" sqref="A14:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -464,7 +464,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -475,16 +475,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -492,186 +492,186 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -696,186 +696,186 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="22">
   <si>
     <t>Lek1</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Ich spiele mit meiner Katze</t>
+  </si>
+  <si>
+    <t>Lek13</t>
   </si>
 </sst>
 </file>
@@ -447,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -863,7 +866,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F98349E-6DE1-41B5-AAAE-3146951F4E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="27">
   <si>
     <t>Lek1</t>
   </si>
@@ -80,13 +81,28 @@
   </si>
   <si>
     <t>Lek13</t>
+  </si>
+  <si>
+    <t>lek 20</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>zum Beispiel</t>
+  </si>
+  <si>
+    <t>الالللليب</t>
+  </si>
+  <si>
+    <t>سيبسيبسيب</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +176,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -206,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,9 +262,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,6 +314,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,14 +507,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
@@ -462,9 +520,9 @@
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>18</v>
@@ -473,7 +531,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -507,7 +565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,7 +582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -541,7 +599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -558,7 +616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -575,7 +633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -592,7 +650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -609,7 +667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -626,7 +684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -643,7 +701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30.75" customHeight="1">
+    <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -660,7 +718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -677,7 +735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -711,7 +769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -728,7 +786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -745,7 +803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -762,7 +820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -779,7 +837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -796,7 +854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -813,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -830,7 +888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -847,7 +905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -864,7 +922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -879,6 +937,23 @@
       </c>
       <c r="E25" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F98349E-6DE1-41B5-AAAE-3146951F4E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB4AF9-B375-41D7-B87B-3F40A5EB0937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="21">
   <si>
     <t>Lek1</t>
   </si>
@@ -59,12 +59,6 @@
     <t>انا العب مع قطتى</t>
   </si>
   <si>
-    <t>Lek11</t>
-  </si>
-  <si>
-    <t>Lek12</t>
-  </si>
-  <si>
     <t>r, Hund</t>
   </si>
   <si>
@@ -80,22 +74,10 @@
     <t>Ich spiele mit meiner Katze</t>
   </si>
   <si>
-    <t>Lek13</t>
-  </si>
-  <si>
-    <t>lek 20</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>zum Beispiel</t>
-  </si>
-  <si>
-    <t>الالللليب</t>
-  </si>
-  <si>
-    <t>سيبسيبسيب</t>
+    <t>f</t>
+  </si>
+  <si>
+    <t>lek 18</t>
   </si>
 </sst>
 </file>
@@ -508,9 +490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -520,43 +504,46 @@
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -565,32 +552,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -599,15 +589,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -616,15 +606,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -632,33 +622,39 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -667,15 +663,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -684,15 +680,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -701,15 +697,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -718,15 +714,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -735,15 +731,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -752,15 +748,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -769,15 +765,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -791,10 +787,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -808,10 +804,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -825,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -842,10 +838,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -859,10 +855,10 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -876,10 +872,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -893,10 +889,10 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -907,13 +903,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -924,13 +920,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -941,19 +937,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
